--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H2">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>23.850481188952</v>
+        <v>0.3666515323338889</v>
       </c>
       <c r="R2">
-        <v>214.654330700568</v>
+        <v>3.299863791005</v>
       </c>
       <c r="S2">
-        <v>0.007468329316755091</v>
+        <v>0.0004473746680569466</v>
       </c>
       <c r="T2">
-        <v>0.007468329316755093</v>
+        <v>0.0004473746680569466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H3">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>58.59003321552089</v>
+        <v>5.467550427943557</v>
       </c>
       <c r="R3">
-        <v>527.310298939688</v>
+        <v>49.20795385149201</v>
       </c>
       <c r="S3">
-        <v>0.0183463662333077</v>
+        <v>0.006671303245934319</v>
       </c>
       <c r="T3">
-        <v>0.0183463662333077</v>
+        <v>0.006671303245934318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H4">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>30.037713319702</v>
+        <v>2.075440900761667</v>
       </c>
       <c r="R4">
-        <v>270.339419877318</v>
+        <v>18.678968106855</v>
       </c>
       <c r="S4">
-        <v>0.009405744614399228</v>
+        <v>0.002532376390573839</v>
       </c>
       <c r="T4">
-        <v>0.009405744614399228</v>
+        <v>0.002532376390573839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J5">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>187.371493558788</v>
+        <v>30.86674431366167</v>
       </c>
       <c r="R5">
-        <v>1686.343442029092</v>
+        <v>277.800698822955</v>
       </c>
       <c r="S5">
-        <v>0.05867185686456889</v>
+        <v>0.0376624622387994</v>
       </c>
       <c r="T5">
-        <v>0.05867185686456888</v>
+        <v>0.03766246223879941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J6">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>460.2884924743747</v>
@@ -818,10 +818,10 @@
         <v>4142.596432269373</v>
       </c>
       <c r="S6">
-        <v>0.1441306787597952</v>
+        <v>0.561627031040565</v>
       </c>
       <c r="T6">
-        <v>0.1441306787597952</v>
+        <v>0.561627031040565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.994191</v>
       </c>
       <c r="I7">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J7">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>235.978937414913</v>
+        <v>174.722039791145</v>
       </c>
       <c r="R7">
-        <v>2123.810436734217</v>
+        <v>1572.498358120305</v>
       </c>
       <c r="S7">
-        <v>0.07389236311294521</v>
+        <v>0.2131893846351487</v>
       </c>
       <c r="T7">
-        <v>0.0738923631129452</v>
+        <v>0.2131893846351487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H8">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I8">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J8">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>465.955285887904</v>
+        <v>6.7574309345</v>
       </c>
       <c r="R8">
-        <v>4193.597572991136</v>
+        <v>60.8168784105</v>
       </c>
       <c r="S8">
-        <v>0.1459051284678312</v>
+        <v>0.008245167835509576</v>
       </c>
       <c r="T8">
-        <v>0.1459051284678312</v>
+        <v>0.008245167835509576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H9">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I9">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J9">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>1144.64506861882</v>
+        <v>100.7675984948</v>
       </c>
       <c r="R9">
-        <v>10301.80561756938</v>
+        <v>906.9083864532</v>
       </c>
       <c r="S9">
-        <v>0.3584240609453593</v>
+        <v>0.1229529047391359</v>
       </c>
       <c r="T9">
-        <v>0.3584240609453592</v>
+        <v>0.1229529047391358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H10">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I10">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J10">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>586.832239836904</v>
+        <v>38.2506202995</v>
       </c>
       <c r="R10">
-        <v>5281.490158532136</v>
+        <v>344.2555826955</v>
       </c>
       <c r="S10">
-        <v>0.1837554716850383</v>
+        <v>0.04667199520627628</v>
       </c>
       <c r="T10">
-        <v>0.1837554716850382</v>
+        <v>0.04667199520627628</v>
       </c>
     </row>
   </sheetData>
